--- a/park-impeachment-region-20170313/park-impeachment-region-20170313.xlsx
+++ b/park-impeachment-region-20170313/park-impeachment-region-20170313.xlsx
@@ -19,6 +19,9 @@
     <t>key</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -31,7 +34,7 @@
     <t>subhed</t>
   </si>
   <si>
-    <t>The percentage who approve/disapprove, by age.</t>
+    <t>The percentage who approve/disapprove, by region.</t>
   </si>
   <si>
     <t>footnote</t>
@@ -52,12 +55,6 @@
     <t>Matt Stiles/The Daily Viz</t>
   </si>
   <si>
-    <t>The percentage who approve/disapprove, by region.</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>Approve</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>All Ages</t>
+  </si>
+  <si>
+    <t>The percentage who approve/disapprove, by age.</t>
   </si>
   <si>
     <t>Age: 19-29</t>
@@ -140,58 +140,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -201,24 +196,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -233,7 +231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -262,10 +260,10 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -294,10 +292,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -326,10 +324,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -358,10 +356,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -390,10 +388,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -707,6 +705,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -750,10 +751,10 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -782,10 +783,10 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -814,10 +815,10 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -846,10 +847,10 @@
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -878,10 +879,10 @@
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1195,6 +1196,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,16 +1212,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1244,7 +1248,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9">
         <v>77.0</v>
@@ -1252,7 +1256,7 @@
       <c r="C2" s="9">
         <v>18.0</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D7" si="1">100-(B2+C2)</f>
         <v>5</v>
       </c>
@@ -1268,7 +1272,7 @@
       <c r="C3" s="10">
         <v>5.0</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1284,7 +1288,7 @@
       <c r="C4" s="10">
         <v>4.0</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1300,7 +1304,7 @@
       <c r="C5" s="10">
         <v>9.0</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1316,7 +1320,7 @@
       <c r="C6" s="10">
         <v>28.0</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1332,7 +1336,7 @@
       <c r="C7" s="10">
         <v>39.0</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2213,6 +2217,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2226,16 +2233,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -2270,7 +2277,7 @@
       <c r="C2" s="9">
         <v>14.0</v>
       </c>
-      <c r="D2" s="7" t="str">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D7" si="1">100-(B2+C2)</f>
         <v>5</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="C3" s="10">
         <v>19.0</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2302,7 +2309,7 @@
       <c r="C4" s="10">
         <v>16.0</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2318,7 +2325,7 @@
       <c r="C5" s="10">
         <v>5.0</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2334,7 +2341,7 @@
       <c r="C6" s="10">
         <v>29.0</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2350,7 +2357,7 @@
       <c r="C7" s="10">
         <v>21.0</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
